--- a/BootCamp-OrganizadordeDeclaraçãodeImpostodeRenda.xlsx
+++ b/BootCamp-OrganizadordeDeclaraçãodeImpostodeRenda.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrique\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DIO.ME\OrganizadordeDeclaraçãodeImpostodeRenda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5EF5D2-FB19-438B-87DC-6E7E636E452A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4973D51B-97C9-4FFB-A7B3-AC7E5D527151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E88A95ED-AA79-4680-B9FB-0F40B92DF7C7}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>Henriquefeitosa1309@gmail.com</t>
   </si>
   <si>
-    <t>Rua Napoles</t>
-  </si>
-  <si>
     <t>Viviane</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>Freelance</t>
+  </si>
+  <si>
+    <t>Rua Napoleao</t>
   </si>
 </sst>
 </file>
@@ -311,10 +311,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="170" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
-    <numFmt numFmtId="172" formatCode="00000\-000"/>
-    <numFmt numFmtId="174" formatCode="&quot;(&quot;00&quot;)&quot;00000&quot;-&quot;0000"/>
-    <numFmt numFmtId="175" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
+    <numFmt numFmtId="165" formatCode="00000\-000"/>
+    <numFmt numFmtId="166" formatCode="&quot;(&quot;00&quot;)&quot;00000&quot;-&quot;0000"/>
+    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -496,9 +496,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -508,18 +505,12 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -531,11 +522,11 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -551,18 +542,9 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -576,13 +558,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -591,13 +591,6 @@
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -624,11 +617,18 @@
       </border>
     </dxf>
     <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="2" tint="-9.9948118533890809E-2"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2675,12 +2675,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1887BA77-3277-4654-9F92-C273ADEFDB7E}" name="TabEntradas" displayName="TabEntradas" ref="G8:I9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1887BA77-3277-4654-9F92-C273ADEFDB7E}" name="TabEntradas" displayName="TabEntradas" ref="G8:I9" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
   <autoFilter ref="G8:I9" xr:uid="{1887BA77-3277-4654-9F92-C273ADEFDB7E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C4A3E814-0C84-4280-B492-80E401327FE2}" name="Data" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B8E8C9E9-7DFB-4057-9C9A-81B518374C5C}" name="Categoria" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{42CE87B2-FFA5-4AA4-9964-E9F94E26DB15}" name="Valor" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C4A3E814-0C84-4280-B492-80E401327FE2}" name="Data" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B8E8C9E9-7DFB-4057-9C9A-81B518374C5C}" name="Categoria" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{42CE87B2-FFA5-4AA4-9964-E9F94E26DB15}" name="Valor" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2987,7 +2987,7 @@
   <dimension ref="A3:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3005,17 +3005,17 @@
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3023,56 +3023,56 @@
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="16">
-        <v>39684952848</v>
+      <c r="D7" s="13">
+        <v>12345678910</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="17">
-        <v>33494</v>
+      <c r="D8" s="14">
+        <v>29504</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <v>12345678</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>20</v>
+      <c r="D10" s="15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>19</v>
+      <c r="D11" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>19</v>
+      <c r="D12" s="15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="16">
         <v>6712380</v>
       </c>
     </row>
@@ -3080,23 +3080,23 @@
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="20">
-        <v>11979941302</v>
+      <c r="D14" s="17">
+        <v>11979991909</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="20">
-        <v>11979941302</v>
+      <c r="D15" s="17">
+        <v>11979991909</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3112,7 +3112,7 @@
       <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
       <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3160,125 +3160,125 @@
   <sheetData>
     <row r="3" spans="3:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="3:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="12">
+      <c r="C7" s="30">
         <f>D11+D15+D19</f>
         <v>3000</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="9" t="s">
-        <v>79</v>
+      <c r="C9" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="24">
+        <v>23</v>
+      </c>
+      <c r="D11" s="21">
         <v>1000</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="24">
+        <v>23</v>
+      </c>
+      <c r="D15" s="21">
         <v>1000</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="14"/>
+      <c r="C17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="24">
+        <v>23</v>
+      </c>
+      <c r="D19" s="21">
         <v>1000</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="D20" s="15"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -3318,9 +3318,9 @@
     <col min="3" max="3" width="31.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="18.140625" customWidth="1"/>
   </cols>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="3" spans="3:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -3346,19 +3346,19 @@
       <c r="I3"/>
     </row>
     <row r="4" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -3370,49 +3370,49 @@
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="22">
+        <v>82</v>
+      </c>
+      <c r="D7" s="19">
         <v>45828</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>84</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="24">
+        <v>84</v>
+      </c>
+      <c r="D9" s="21">
         <v>3000</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="G9" s="30">
+      <c r="E9" s="6"/>
+      <c r="G9" s="24">
         <v>45828</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="32">
+      <c r="H9" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="26">
         <v>3000</v>
       </c>
     </row>
@@ -3450,258 +3450,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>26</v>
+      <c r="A1" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
